--- a/Popa_Doroteea/lab8.xlsx
+++ b/Popa_Doroteea/lab8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\an4_sem1_2023\SOAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\SOAC_23-24\Popa_Doroteea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F2BD7B-EC2B-40AD-A16A-B45865B128B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D16781-CC2B-416D-8D63-802719778362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="11016" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>sort</t>
   </si>
@@ -96,7 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +114,3688 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Exercitiul 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>63.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.790000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>perm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>puzzle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$17:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$17:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.507500000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.097499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.677499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.876249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.029999999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.034999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.322500000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.298749999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.175000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-499A-4A9F-8F59-408AE6F6E5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1181704816"/>
+        <c:axId val="1271622864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1181704816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271622864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1271622864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181704816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Exercitiul</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>perm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>puzzle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.959999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>67.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.126249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.123750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.785000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.561250000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.33250000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.496249999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.60499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BD88-4797-8174-4F1A7FC0B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1354195680"/>
+        <c:axId val="1353473520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1354195680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1353473520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1353473520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354195680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC8885A-2F1F-C3B8-1B72-927202FF9C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0056FE17-6D52-2F96-8D27-182D59DDA2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +4165,7 @@
         <v>74.39</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="0">AVERAGE(C4:J4)</f>
+        <f t="shared" ref="K4:K12" si="0">AVERAGE(C4:J4)</f>
         <v>74.34</v>
       </c>
     </row>
@@ -589,26 +4272,166 @@
       <c r="B8">
         <v>50</v>
       </c>
+      <c r="C8" s="1">
+        <v>82.93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>96.45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>79.38</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90.46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="I8" s="1">
+        <v>71.34</v>
+      </c>
+      <c r="J8" s="1">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>100</v>
       </c>
+      <c r="C9" s="1">
+        <v>83.21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>96.66</v>
+      </c>
+      <c r="E9" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>90.89</v>
+      </c>
+      <c r="G9" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="J9" s="1">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>78.75</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>200</v>
       </c>
+      <c r="C10" s="1">
+        <v>83.21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>96.68</v>
+      </c>
+      <c r="E10" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>91.15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="H10" s="1">
+        <v>64.55</v>
+      </c>
+      <c r="I10" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="J10" s="1">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>79.33250000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>300</v>
       </c>
+      <c r="C11" s="1">
+        <v>83.66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>96.69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>91.46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>68.44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>64.53</v>
+      </c>
+      <c r="I11" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="J11" s="1">
+        <v>75.17</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>79.496249999999989</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>500</v>
       </c>
+      <c r="C12" s="1">
+        <v>83.69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>96.69</v>
+      </c>
+      <c r="E12" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>91.61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="H12" s="1">
+        <v>64.55</v>
+      </c>
+      <c r="I12" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="J12" s="1">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>79.60499999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -681,53 +4504,316 @@
       <c r="B18">
         <v>10</v>
       </c>
+      <c r="C18">
+        <v>72.84</v>
+      </c>
+      <c r="D18">
+        <v>96.67</v>
+      </c>
+      <c r="E18">
+        <v>80.14</v>
+      </c>
+      <c r="F18">
+        <v>88.31</v>
+      </c>
+      <c r="G18">
+        <v>44.73</v>
+      </c>
+      <c r="H18">
+        <v>61.6</v>
+      </c>
+      <c r="I18">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="J18">
+        <v>64.64</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K26" si="1">AVERAGE(C18:J18)</f>
+        <v>73.097499999999997</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>20</v>
       </c>
+      <c r="C19">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D19">
+        <v>96.65</v>
+      </c>
+      <c r="E19">
+        <v>80.16</v>
+      </c>
+      <c r="F19">
+        <v>90.51</v>
+      </c>
+      <c r="G19">
+        <v>44.49</v>
+      </c>
+      <c r="H19">
+        <v>61.89</v>
+      </c>
+      <c r="I19">
+        <v>75.84</v>
+      </c>
+      <c r="J19">
+        <v>73.28</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>74.677499999999995</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>30</v>
       </c>
+      <c r="C20">
+        <v>74.94</v>
+      </c>
+      <c r="D20">
+        <v>96.63</v>
+      </c>
+      <c r="E20">
+        <v>80.16</v>
+      </c>
+      <c r="F20">
+        <v>90.7</v>
+      </c>
+      <c r="G20">
+        <v>44.84</v>
+      </c>
+      <c r="H20">
+        <v>62.58</v>
+      </c>
+      <c r="I20">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="J20">
+        <v>73.34</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>74.876249999999999</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>40</v>
       </c>
+      <c r="C21">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="D21">
+        <v>96.6</v>
+      </c>
+      <c r="E21">
+        <v>80.16</v>
+      </c>
+      <c r="F21">
+        <v>90.74</v>
+      </c>
+      <c r="G21">
+        <v>46.19</v>
+      </c>
+      <c r="H21">
+        <v>62.33</v>
+      </c>
+      <c r="I21">
+        <v>75.81</v>
+      </c>
+      <c r="J21">
+        <v>73.42</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>75.029999999999987</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>50</v>
       </c>
+      <c r="C22">
+        <v>75.19</v>
+      </c>
+      <c r="D22">
+        <v>96.58</v>
+      </c>
+      <c r="E22">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="F22">
+        <v>90.77</v>
+      </c>
+      <c r="G22">
+        <v>45.76</v>
+      </c>
+      <c r="H22">
+        <v>62.62</v>
+      </c>
+      <c r="I22">
+        <v>75.81</v>
+      </c>
+      <c r="J22">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>75.034999999999997</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>100</v>
       </c>
+      <c r="C23">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="D23">
+        <v>96.46</v>
+      </c>
+      <c r="E23">
+        <v>80.12</v>
+      </c>
+      <c r="F23">
+        <v>90.88</v>
+      </c>
+      <c r="G23">
+        <v>47.67</v>
+      </c>
+      <c r="H23">
+        <v>63.12</v>
+      </c>
+      <c r="I23">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="J23">
+        <v>73.33</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>75.322500000000005</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>200</v>
       </c>
+      <c r="C24">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="D24">
+        <v>96.23</v>
+      </c>
+      <c r="E24">
+        <v>80.05</v>
+      </c>
+      <c r="F24">
+        <v>90.86</v>
+      </c>
+      <c r="G24">
+        <v>47.23</v>
+      </c>
+      <c r="H24">
+        <v>63.29</v>
+      </c>
+      <c r="I24">
+        <v>75.69</v>
+      </c>
+      <c r="J24">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>75.210000000000008</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>300</v>
       </c>
+      <c r="C25">
+        <v>75.03</v>
+      </c>
+      <c r="D25">
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <v>79.98</v>
+      </c>
+      <c r="F25">
+        <v>90.84</v>
+      </c>
+      <c r="G25">
+        <v>48.6</v>
+      </c>
+      <c r="H25">
+        <v>63.33</v>
+      </c>
+      <c r="I25">
+        <v>75.58</v>
+      </c>
+      <c r="J25">
+        <v>73.03</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>75.298749999999998</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>500</v>
       </c>
+      <c r="C26">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="D26">
+        <v>95.54</v>
+      </c>
+      <c r="E26">
+        <v>79.84</v>
+      </c>
+      <c r="F26">
+        <v>90.79</v>
+      </c>
+      <c r="G26">
+        <v>49.32</v>
+      </c>
+      <c r="H26">
+        <v>62.99</v>
+      </c>
+      <c r="I26">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J26">
+        <v>72.73</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>75.175000000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>